--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T18:16:13+00:00</t>
+    <t>2023-02-24T18:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:13:37+00:00</t>
+    <t>2023-02-28T09:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:38:47+00:00</t>
+    <t>2023-02-28T09:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:15+00:00</t>
+    <t>2023-03-06T10:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:09+00:00</t>
+    <t>2023-03-06T10:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:54+00:00</t>
+    <t>2023-03-06T10:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:59:17+00:00</t>
+    <t>2023-03-07T10:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:19:57+00:00</t>
+    <t>2023-03-07T10:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-supported-capacity</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-supported-capacity</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:20:30+00:00</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR qui indique une série d’enregistrements indiquant la quantité de lit (ou de place) de l'entité pour un statut et une temporalité donnés.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/main/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
